--- a/documents/CSDL_Template.xlsx
+++ b/documents/CSDL_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAnPhamMemSucKhoe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAnPhanMemSucKhoe\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D2C20-F85C-42FB-85F6-EA83C9BC3D98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB1DF9-7C5A-4C76-9A99-924C3B939EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{33D16ADA-5570-4209-A133-63FE3AF458D3}"/>
+    <workbookView xWindow="-28755" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{33D16ADA-5570-4209-A133-63FE3AF458D3}"/>
   </bookViews>
   <sheets>
     <sheet name="CSDL" sheetId="1" r:id="rId1"/>
@@ -30,52 +30,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Người dùng</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Tuổi</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Cân nặng</t>
-  </si>
-  <si>
-    <t>Chiều cao</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
     <t>BMR</t>
   </si>
   <si>
-    <t>Mức độ hoạt động (ít vận động, trung bình, cao)</t>
-  </si>
-  <si>
-    <t>Tiền sử bệnh lí (tiểu đường, cao huyết áp, dị ứng thực phẩm)</t>
-  </si>
-  <si>
-    <t>Thực phẩm</t>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>GenderID (FK)</t>
+  </si>
+  <si>
+    <t>ID (PK)</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MedicalHistory</t>
+  </si>
+  <si>
+    <t>ActivityLevelID (FK)</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ACTIVITYLEVEL</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>GoalID (FK)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FOOD</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>CategoryID (FK)</t>
+  </si>
+  <si>
+    <t>Image_URL</t>
+  </si>
+  <si>
+    <t>NUTRITION_FACTS</t>
+  </si>
+  <si>
+    <t>FoodID (FK)</t>
+  </si>
+  <si>
+    <t>Nutrient_name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>HEALTH_BENEFITS</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>ALLERGY_INFO</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>USAGE_INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>SUPPLY_SOURCES</t>
+  </si>
+  <si>
+    <t>Source_name</t>
+  </si>
+  <si>
+    <t>Source_address</t>
+  </si>
+  <si>
+    <t>Role_name</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Category_name</t>
+  </si>
+  <si>
+    <t>RoleID (FK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +177,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,12 +218,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -282,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,82 +541,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4E010-56CD-4611-A4FC-CB76E041050B}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
